--- a/заказы/филиалы и опт/2024/11,24/18,11,24 Ост СЫР филиалы/заказ СЫРЫ от 20,11,24 на 25,11,24.xlsx
+++ b/заказы/филиалы и опт/2024/11,24/18,11,24 Ост СЫР филиалы/заказ СЫРЫ от 20,11,24 на 25,11,24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\18,11,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\11,24\18,11,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B3425-1E91-4DAA-9913-1F08CAEEFF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ACBB0A-B1AC-4D74-9203-DB2B2541FAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мелитополь" sheetId="1" r:id="rId1"/>
@@ -788,10 +788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -894,7 +895,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="2">
         <v>5523701</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="2">
         <v>5038398</v>
       </c>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="29">
         <v>5039609</v>
       </c>
@@ -1137,7 +1138,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="1">
         <v>5039647</v>
       </c>
@@ -1189,7 +1190,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>5039623</v>
       </c>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="4">
         <v>5522704</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="4">
         <v>1018950</v>
       </c>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="4">
         <v>1018967</v>
       </c>
@@ -1291,7 +1292,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="4">
         <v>783798</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="4">
         <v>783804</v>
       </c>
@@ -1370,7 +1371,7 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="4">
         <v>783828</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="4">
         <v>8784474</v>
       </c>
@@ -1478,7 +1479,7 @@
       </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="4">
         <v>8444163</v>
       </c>
@@ -1530,7 +1531,7 @@
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="4">
         <v>9988377</v>
       </c>
@@ -1609,7 +1610,7 @@
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1">
+    <row r="32" spans="1:9" s="23" customFormat="1" hidden="1">
       <c r="A32" s="6">
         <v>5039845</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="4">
         <v>2981244</v>
       </c>
@@ -1673,7 +1674,7 @@
       <c r="C34" s="15">
         <v>5</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="16">
         <v>16.5</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="4">
         <v>8785228</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="4">
         <v>9988452</v>
       </c>
@@ -1852,7 +1853,7 @@
       </c>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="4">
         <v>9988421</v>
       </c>
@@ -1877,7 +1878,7 @@
       </c>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="4">
         <v>9988674</v>
       </c>
@@ -1926,7 +1927,28 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A3:I43" xr:uid="{ACC45556-0BB0-4EEF-8A52-221BB959BD45}"/>
+  <autoFilter ref="A3:I43" xr:uid="{ACC45556-0BB0-4EEF-8A52-221BB959BD45}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="16"/>
+        <filter val="19"/>
+        <filter val="2"/>
+        <filter val="25"/>
+        <filter val="3"/>
+        <filter val="38"/>
+        <filter val="4"/>
+        <filter val="42"/>
+        <filter val="45"/>
+        <filter val="50"/>
+        <filter val="69"/>
+        <filter val="7"/>
+        <filter val="72"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0" right="0" top="0.1388888888888889" bottom="0.1388888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -1938,10 +1960,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448066F1-06A8-41EC-BC4B-F32AF7AFAB0A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2044,7 +2067,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="2">
         <v>5523701</v>
       </c>
@@ -2096,7 +2119,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="4">
         <v>5038596</v>
       </c>
@@ -2206,7 +2229,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="29">
         <v>5039609</v>
       </c>
@@ -2231,7 +2254,7 @@
       </c>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="4">
         <v>5038619</v>
       </c>
@@ -2258,7 +2281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="4">
         <v>5038855</v>
       </c>
@@ -2283,7 +2306,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="1">
         <v>5039647</v>
       </c>
@@ -2308,7 +2331,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="4">
         <v>5038831</v>
       </c>
@@ -2333,7 +2356,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>5039623</v>
       </c>
@@ -2358,7 +2381,7 @@
       </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="4">
         <v>5522704</v>
       </c>
@@ -2385,7 +2408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="4">
         <v>1018950</v>
       </c>
@@ -2410,7 +2433,7 @@
       </c>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="4">
         <v>1018967</v>
       </c>
@@ -2518,7 +2541,7 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="4">
         <v>783828</v>
       </c>
@@ -2545,7 +2568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="4">
         <v>8784474</v>
       </c>
@@ -2626,7 +2649,7 @@
       </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="4">
         <v>8444163</v>
       </c>
@@ -2651,7 +2674,7 @@
       </c>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="4">
         <v>8444170</v>
       </c>
@@ -2676,7 +2699,7 @@
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="4">
         <v>9988377</v>
       </c>
@@ -2701,7 +2724,7 @@
       </c>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="4">
         <v>9988391</v>
       </c>
@@ -2726,7 +2749,7 @@
       </c>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="4">
         <v>5034819</v>
       </c>
@@ -2751,7 +2774,7 @@
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1">
+    <row r="32" spans="1:9" s="23" customFormat="1" hidden="1">
       <c r="A32" s="6">
         <v>5039845</v>
       </c>
@@ -2778,7 +2801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="4">
         <v>2981244</v>
       </c>
@@ -2834,7 +2857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="4">
         <v>8785228</v>
       </c>
@@ -2888,7 +2911,7 @@
       </c>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="4">
         <v>9988476</v>
       </c>
@@ -2994,7 +3017,7 @@
       </c>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="4">
         <v>9988421</v>
       </c>
@@ -3019,7 +3042,7 @@
       </c>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="4">
         <v>9988674</v>
       </c>
@@ -3061,17 +3084,34 @@
       <c r="I43" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I43" xr:uid="{959B60F6-A4C4-4E25-B7D0-7C2E7DC81891}"/>
+  <autoFilter ref="A3:I43" xr:uid="{959B60F6-A4C4-4E25-B7D0-7C2E7DC81891}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="12"/>
+        <filter val="21"/>
+        <filter val="25"/>
+        <filter val="26"/>
+        <filter val="3"/>
+        <filter val="41"/>
+        <filter val="42"/>
+        <filter val="45"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96DD6B4-5F20-4ACA-AC2B-3B0D5764A8AE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3174,7 +3214,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="2">
         <v>5523701</v>
       </c>
@@ -3199,7 +3239,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="2">
         <v>5038459</v>
       </c>
@@ -3224,7 +3264,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="4">
         <v>5038596</v>
       </c>
@@ -3278,7 +3318,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="4">
         <v>5038572</v>
       </c>
@@ -3305,7 +3345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="2">
         <v>5038398</v>
       </c>
@@ -3330,7 +3370,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="29">
         <v>5039609</v>
       </c>
@@ -3384,7 +3424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="4">
         <v>5038855</v>
       </c>
@@ -3409,7 +3449,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="1">
         <v>5039647</v>
       </c>
@@ -3434,7 +3474,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="4">
         <v>5038831</v>
       </c>
@@ -3459,7 +3499,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>5039623</v>
       </c>
@@ -3513,7 +3553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="4">
         <v>1018950</v>
       </c>
@@ -3538,7 +3578,7 @@
       </c>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="4">
         <v>1018967</v>
       </c>
@@ -3590,7 +3630,7 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="4">
         <v>783811</v>
       </c>
@@ -3644,7 +3684,7 @@
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="4">
         <v>783828</v>
       </c>
@@ -3671,7 +3711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="4">
         <v>8784474</v>
       </c>
@@ -3752,7 +3792,7 @@
       </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="4">
         <v>8444163</v>
       </c>
@@ -3804,7 +3844,7 @@
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="4">
         <v>9988377</v>
       </c>
@@ -3883,7 +3923,7 @@
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" s="23" customFormat="1">
+    <row r="32" spans="1:9" s="23" customFormat="1" hidden="1">
       <c r="A32" s="6">
         <v>5039845</v>
       </c>
@@ -3910,7 +3950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="4">
         <v>2981244</v>
       </c>
@@ -3966,7 +4006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="4">
         <v>8785228</v>
       </c>
@@ -3993,7 +4033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="4">
         <v>9988452</v>
       </c>
@@ -4018,7 +4058,7 @@
       </c>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="4">
         <v>9988476</v>
       </c>
@@ -4070,7 +4110,7 @@
       </c>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="4">
         <v>9988438</v>
       </c>
@@ -4095,7 +4135,7 @@
       </c>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="4">
         <v>9988445</v>
       </c>
@@ -4120,7 +4160,7 @@
       </c>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="4">
         <v>9988421</v>
       </c>
@@ -4145,7 +4185,7 @@
       </c>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="4">
         <v>9988674</v>
       </c>
@@ -4187,7 +4227,21 @@
       <c r="I43" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I43" xr:uid="{C5E4DEB4-C6F0-4ECE-832A-E4C75199DFB7}"/>
+  <autoFilter ref="A3:I43" xr:uid="{C5E4DEB4-C6F0-4ECE-832A-E4C75199DFB7}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="1"/>
+        <filter val="11"/>
+        <filter val="23"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="42"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
